--- a/sheets/Coding Decoded Heaps SDE revision sheet.xlsx
+++ b/sheets/Coding Decoded Heaps SDE revision sheet.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\shad\sheets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD10A58-9495-419D-8322-CE3FB1AB4A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="130" yWindow="550" windowWidth="18880" windowHeight="8740"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
   <si>
     <t>Questions marked with ** are must do before interviewers</t>
   </si>
@@ -192,12 +198,18 @@
   <si>
     <t>r</t>
   </si>
+  <si>
+    <t>r*</t>
+  </si>
+  <si>
+    <t>r**</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -304,6 +316,14 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="14">
@@ -395,10 +415,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -453,8 +474,12 @@
     <xf numFmtId="0" fontId="15" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -462,6 +487,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -664,24 +692,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54" customWidth="1"/>
     <col min="2" max="2" width="29.453125" customWidth="1"/>
     <col min="3" max="3" width="39.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13">
+    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -689,95 +717,98 @@
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="27" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="27" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="27" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="28" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="28" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1">
+      <c r="E8" s="21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>18</v>
       </c>
@@ -790,8 +821,11 @@
       <c r="D9" s="9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1">
+      <c r="E9" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>21</v>
       </c>
@@ -804,8 +838,11 @@
       <c r="D10" s="9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1">
+      <c r="E10" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>24</v>
       </c>
@@ -818,8 +855,11 @@
       <c r="D11" s="9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1">
+      <c r="E11" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>27</v>
       </c>
@@ -832,8 +872,11 @@
       <c r="D12" s="9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1">
+      <c r="E12" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>30</v>
       </c>
@@ -846,8 +889,11 @@
       <c r="D13" s="12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1">
+      <c r="E13" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>33</v>
       </c>
@@ -860,8 +906,11 @@
       <c r="D14" s="9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1">
+      <c r="E14" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>36</v>
       </c>
@@ -875,10 +924,10 @@
         <v>14</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>39</v>
       </c>
@@ -892,30 +941,33 @@
         <v>14</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
     </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>42</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="26" t="s">
         <v>44</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>46</v>
       </c>
@@ -928,39 +980,42 @@
       <c r="D19" s="16" t="s">
         <v>45</v>
       </c>
+      <c r="E19" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="C4" r:id="rId4"/>
-    <hyperlink ref="B5" r:id="rId5"/>
-    <hyperlink ref="C5" r:id="rId6"/>
-    <hyperlink ref="B7" r:id="rId7"/>
-    <hyperlink ref="C7" r:id="rId8"/>
-    <hyperlink ref="B8" r:id="rId9"/>
-    <hyperlink ref="C8" r:id="rId10"/>
-    <hyperlink ref="B9" r:id="rId11"/>
-    <hyperlink ref="C9" r:id="rId12"/>
-    <hyperlink ref="B10" r:id="rId13"/>
-    <hyperlink ref="C10" r:id="rId14"/>
-    <hyperlink ref="B11" r:id="rId15"/>
-    <hyperlink ref="C11" r:id="rId16"/>
-    <hyperlink ref="B12" r:id="rId17"/>
-    <hyperlink ref="C12" r:id="rId18"/>
-    <hyperlink ref="B13" r:id="rId19"/>
-    <hyperlink ref="C13" r:id="rId20"/>
-    <hyperlink ref="B14" r:id="rId21"/>
-    <hyperlink ref="C14" r:id="rId22"/>
-    <hyperlink ref="B15" r:id="rId23"/>
-    <hyperlink ref="C15" r:id="rId24"/>
-    <hyperlink ref="B16" r:id="rId25"/>
-    <hyperlink ref="C16" r:id="rId26"/>
-    <hyperlink ref="B18" r:id="rId27"/>
-    <hyperlink ref="C18" r:id="rId28"/>
-    <hyperlink ref="B19" r:id="rId29"/>
-    <hyperlink ref="C19" r:id="rId30"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C5" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B7" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C7" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B8" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C8" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B9" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C9" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B10" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C10" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B11" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C11" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B12" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C12" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B13" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C13" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B14" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C14" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B15" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C15" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B16" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C16" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B18" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C18" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B19" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C19" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
